--- a/Data for F_q-points on singular cubic threefolds V_c (hyperplane sections of Fermat).xlsx
+++ b/Data for F_q-points on singular cubic threefolds V_c (hyperplane sections of Fermat).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtywa\Dropbox\MIT &amp; Princeton\Sarnak references post-generals\Sarnak60\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61F3572-96ED-4AE2-A505-34E68C1CA709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB75F6-F146-455B-BFE3-35B5DF067F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,12 +111,6 @@
     <t>[5,7,11,13,17]</t>
   </si>
   <si>
-    <t>LazyErrorRatio(c,q)</t>
-  </si>
-  <si>
-    <t>CleanLineErrorRatio(c,q)</t>
-  </si>
-  <si>
     <t>[0,17,1,19,1]</t>
   </si>
   <si>
@@ -778,6 +772,12 @@
   </si>
   <si>
     <t>([(-9*x_1 + x_2 + 122*x_3, 1), (58*x_1^4 + 85*x_1^3*x_2 + 92*x_1^2*x_2^2 - 36*x_1*x_2^3 + x_2^4 + 400*x_1^3*x_3 + 368*x_1^2*x_2*x_3 - 484*x_1*x_2^2*x_3 + 488*x_2^3*x_3 + 274*x_1^2*x_3^2 - 225*x_1*x_2*x_3^2 + 430*x_2^2*x_3^2 + 137*x_1*x_3^3 - 126*x_2*x_3^3 + 145*x_3^4, 1)], 'defined over GF(-):', [(997, 1, x + 996), (997, 1, x + 996)])</t>
+  </si>
+  <si>
+    <t>CleanLineErrorRatio(c,GF(q))</t>
+  </si>
+  <si>
+    <t>LazyErrorRatio(c,GF(q))</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1142,36 +1142,36 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" t="s">
-        <v>157</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1180,24 +1180,24 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1206,39 +1206,39 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1249,22 +1249,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1275,22 +1275,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -1301,22 +1301,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1327,22 +1327,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1353,22 +1353,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1379,48 +1379,48 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1431,22 +1431,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12">
         <v>-4</v>
@@ -1457,22 +1457,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -1483,22 +1483,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14">
         <v>-3</v>
@@ -1509,22 +1509,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15">
         <v>-5</v>
@@ -1535,22 +1535,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -1561,22 +1561,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1587,22 +1587,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1613,22 +1613,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19">
         <v>-7</v>
@@ -1639,22 +1639,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1665,22 +1665,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21">
         <v>9</v>
@@ -1691,48 +1691,48 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G22">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23">
         <v>-2</v>
@@ -1743,22 +1743,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24">
         <v>7</v>
@@ -1769,22 +1769,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G25">
         <v>8</v>
@@ -1795,100 +1795,100 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G27">
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1899,22 +1899,22 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -1925,48 +1925,48 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1977,48 +1977,48 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G33">
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G34">
         <v>-6</v>
@@ -2029,22 +2029,22 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G35">
         <v>15</v>
@@ -2055,22 +2055,22 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G36">
         <v>13</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2090,39 +2090,39 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G37">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G38">
         <v>-9</v>
@@ -2133,22 +2133,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G39">
         <v>-9</v>
@@ -2159,22 +2159,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G40">
         <v>-8</v>
@@ -2185,22 +2185,22 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G41">
         <v>-8</v>
@@ -2211,22 +2211,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G42">
         <v>15</v>
@@ -2237,22 +2237,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2263,22 +2263,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G45">
         <v>15</v>
@@ -2315,48 +2315,48 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G46">
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G47">
         <v>-11</v>
@@ -2367,16 +2367,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48">
         <v>997</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2385,36 +2385,36 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H48">
         <v>-120</v>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49">
         <v>997</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2423,36 +2423,36 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H49">
         <v>-51</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50">
         <v>997</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2461,36 +2461,36 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H50">
         <v>96</v>
       </c>
       <c r="I50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J50" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" t="s">
+        <v>119</v>
+      </c>
+      <c r="L50" t="s">
         <v>120</v>
-      </c>
-      <c r="K50" t="s">
-        <v>121</v>
-      </c>
-      <c r="L50" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51">
         <v>997</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2499,36 +2499,36 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H51">
         <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52">
         <v>997</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2537,36 +2537,36 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H52">
         <v>-35</v>
       </c>
       <c r="I52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53">
         <v>997</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2575,36 +2575,36 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H53">
         <v>42</v>
       </c>
       <c r="I53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54">
         <v>997</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2613,36 +2613,36 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H54">
         <v>-51</v>
       </c>
       <c r="I54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J54" t="s">
+        <v>123</v>
+      </c>
+      <c r="K54" t="s">
         <v>125</v>
       </c>
-      <c r="K54" t="s">
-        <v>127</v>
-      </c>
       <c r="L54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55">
         <v>997</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -2651,36 +2651,36 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H55">
         <v>112</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J55" t="s">
+        <v>177</v>
+      </c>
+      <c r="K55" t="s">
         <v>179</v>
       </c>
-      <c r="K55" t="s">
-        <v>181</v>
-      </c>
       <c r="L55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56">
         <v>997</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2689,36 +2689,36 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H56">
         <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J56" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" t="s">
         <v>128</v>
       </c>
-      <c r="K56" t="s">
-        <v>130</v>
-      </c>
       <c r="L56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57">
         <v>997</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -2727,36 +2727,36 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H57">
         <v>-35</v>
       </c>
       <c r="I57" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" t="s">
         <v>132</v>
-      </c>
-      <c r="J57" t="s">
-        <v>133</v>
-      </c>
-      <c r="K57" t="s">
-        <v>135</v>
-      </c>
-      <c r="L57" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C58">
         <v>997</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2765,36 +2765,36 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H58">
         <v>55</v>
       </c>
       <c r="I58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59">
         <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2803,36 +2803,36 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H59">
         <v>35</v>
       </c>
       <c r="I59" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" t="s">
+        <v>181</v>
+      </c>
+      <c r="K59" t="s">
         <v>184</v>
       </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
         <v>183</v>
-      </c>
-      <c r="K59" t="s">
-        <v>186</v>
-      </c>
-      <c r="L59" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2841,36 +2841,36 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H60" t="s">
+        <v>191</v>
+      </c>
+      <c r="I60" t="s">
+        <v>192</v>
+      </c>
+      <c r="J60" t="s">
         <v>193</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
+        <v>195</v>
+      </c>
+      <c r="L60" t="s">
         <v>194</v>
-      </c>
-      <c r="J60" t="s">
-        <v>195</v>
-      </c>
-      <c r="K60" t="s">
-        <v>197</v>
-      </c>
-      <c r="L60" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2879,36 +2879,36 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J61" t="s">
+        <v>185</v>
+      </c>
+      <c r="K61" t="s">
         <v>187</v>
       </c>
-      <c r="K61" t="s">
-        <v>189</v>
-      </c>
       <c r="L61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C62">
         <v>997</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2917,36 +2917,36 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H62">
         <v>64</v>
       </c>
       <c r="I62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J62" t="s">
+        <v>196</v>
+      </c>
+      <c r="K62" t="s">
         <v>198</v>
       </c>
-      <c r="K62" t="s">
-        <v>200</v>
-      </c>
       <c r="L62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C63">
         <v>997</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2955,36 +2955,36 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H63">
         <v>42</v>
       </c>
       <c r="I63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J63" t="s">
+        <v>200</v>
+      </c>
+      <c r="K63" t="s">
         <v>202</v>
       </c>
-      <c r="K63" t="s">
-        <v>204</v>
-      </c>
       <c r="L63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>997</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -2993,36 +2993,36 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H64">
         <v>978</v>
       </c>
       <c r="I64" t="s">
+        <v>204</v>
+      </c>
+      <c r="J64" t="s">
+        <v>205</v>
+      </c>
+      <c r="K64" t="s">
+        <v>207</v>
+      </c>
+      <c r="L64" t="s">
         <v>206</v>
-      </c>
-      <c r="J64" t="s">
-        <v>207</v>
-      </c>
-      <c r="K64" t="s">
-        <v>209</v>
-      </c>
-      <c r="L64" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C65">
         <v>997</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3031,36 +3031,36 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H65">
         <v>37</v>
       </c>
       <c r="I65" t="s">
+        <v>209</v>
+      </c>
+      <c r="J65" t="s">
+        <v>208</v>
+      </c>
+      <c r="K65" t="s">
+        <v>210</v>
+      </c>
+      <c r="L65" t="s">
         <v>211</v>
-      </c>
-      <c r="J65" t="s">
-        <v>210</v>
-      </c>
-      <c r="K65" t="s">
-        <v>212</v>
-      </c>
-      <c r="L65" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>997</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3069,36 +3069,36 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H66">
         <v>88</v>
       </c>
       <c r="I66" t="s">
+        <v>213</v>
+      </c>
+      <c r="J66" t="s">
+        <v>212</v>
+      </c>
+      <c r="K66" t="s">
         <v>215</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L66" t="s">
         <v>214</v>
-      </c>
-      <c r="K66" t="s">
-        <v>217</v>
-      </c>
-      <c r="L66" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67">
         <v>997</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3107,36 +3107,36 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H67">
         <v>-65</v>
       </c>
       <c r="I67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J67" t="s">
+        <v>216</v>
+      </c>
+      <c r="K67" t="s">
         <v>218</v>
       </c>
-      <c r="K67" t="s">
-        <v>220</v>
-      </c>
       <c r="L67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C68">
         <v>997</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -3145,36 +3145,36 @@
         <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H68">
         <v>1015</v>
       </c>
       <c r="I68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J68" t="s">
+        <v>220</v>
+      </c>
+      <c r="K68" t="s">
+        <v>207</v>
+      </c>
+      <c r="L68" t="s">
         <v>222</v>
-      </c>
-      <c r="K68" t="s">
-        <v>209</v>
-      </c>
-      <c r="L68" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69">
         <v>997</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3183,22 +3183,22 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H69">
         <v>40</v>
       </c>
       <c r="I69" t="s">
+        <v>223</v>
+      </c>
+      <c r="J69" t="s">
+        <v>224</v>
+      </c>
+      <c r="K69" t="s">
+        <v>226</v>
+      </c>
+      <c r="L69" t="s">
         <v>225</v>
-      </c>
-      <c r="J69" t="s">
-        <v>226</v>
-      </c>
-      <c r="K69" t="s">
-        <v>228</v>
-      </c>
-      <c r="L69" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
